--- a/media/projects/community/testing.xlsx
+++ b/media/projects/community/testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenton/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenton/Documents/GitHub/kenton/media/projects/community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5422640-53C3-FE45-9503-84737591C5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0524BF25-126D-0D46-BC6A-42B3101FA3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="540" windowWidth="24180" windowHeight="17040" xr2:uid="{AFED9E5F-158E-C042-B47D-D329D695A3E2}"/>
   </bookViews>
@@ -263,10 +263,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44072.291666666664</c:v>
                 </c:pt>
@@ -293,16 +293,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44074.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44074.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44074.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44074.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44074.833333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -329,6 +341,18 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>526000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>553000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>593000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5930FA5-CEDE-AF43-A537-DFE6E96242CD}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1647,6 +1671,38 @@
         <v>480000</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44074.5</v>
+      </c>
+      <c r="B11">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44074.583333333336</v>
+      </c>
+      <c r="B12">
+        <v>526000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44074.75</v>
+      </c>
+      <c r="B13">
+        <v>553000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44074.833333333336</v>
+      </c>
+      <c r="B14">
+        <v>593000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
